--- a/natmiOut/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Serpinf1-Plxdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66465115190606</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H2">
-        <v>1.66465115190606</v>
+        <v>6.622357</v>
       </c>
       <c r="I2">
-        <v>0.003946343519561886</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J2">
-        <v>0.003946343519561886</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.47499220632965</v>
+        <v>1.674454</v>
       </c>
       <c r="N2">
-        <v>1.47499220632965</v>
+        <v>5.023362000000001</v>
       </c>
       <c r="O2">
-        <v>0.0502638502776562</v>
+        <v>0.04835027570905603</v>
       </c>
       <c r="P2">
-        <v>0.0502638502776562</v>
+        <v>0.06371938255687164</v>
       </c>
       <c r="Q2">
-        <v>2.455347475319113</v>
+        <v>3.696277389359333</v>
       </c>
       <c r="R2">
-        <v>2.455347475319113</v>
+        <v>33.26649650423401</v>
       </c>
       <c r="S2">
-        <v>0.0001983584198114574</v>
+        <v>0.0002358844482005297</v>
       </c>
       <c r="T2">
-        <v>0.0001983584198114574</v>
+        <v>0.0003138268279959025</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66465115190606</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H3">
-        <v>1.66465115190606</v>
+        <v>6.622357</v>
       </c>
       <c r="I3">
-        <v>0.003946343519561886</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J3">
-        <v>0.003946343519561886</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>4.82133155178745</v>
+        <v>0.3181346666666667</v>
       </c>
       <c r="N3">
-        <v>4.82133155178745</v>
+        <v>0.954404</v>
       </c>
       <c r="O3">
-        <v>0.1642982832167069</v>
+        <v>0.009186217624337229</v>
       </c>
       <c r="P3">
-        <v>0.1642982832167069</v>
+        <v>0.01210624151510652</v>
       </c>
       <c r="Q3">
-        <v>8.025835121404011</v>
+        <v>0.7022671122475556</v>
       </c>
       <c r="R3">
-        <v>8.025835121404011</v>
+        <v>6.320404010228001</v>
       </c>
       <c r="S3">
-        <v>0.0006483774652473948</v>
+        <v>4.481641197675548E-05</v>
       </c>
       <c r="T3">
-        <v>0.0006483774652473948</v>
+        <v>5.962492449212325E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.66465115190606</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H4">
-        <v>1.66465115190606</v>
+        <v>6.622357</v>
       </c>
       <c r="I4">
-        <v>0.003946343519561886</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J4">
-        <v>0.003946343519561886</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.21802225055576</v>
+        <v>5.279328666666667</v>
       </c>
       <c r="N4">
-        <v>2.21802225055576</v>
+        <v>15.837986</v>
       </c>
       <c r="O4">
-        <v>0.07558435755526181</v>
+        <v>0.1524419282894941</v>
       </c>
       <c r="P4">
-        <v>0.07558435755526181</v>
+        <v>0.2008986588791286</v>
       </c>
       <c r="Q4">
-        <v>3.692233294340918</v>
+        <v>11.65386638366689</v>
       </c>
       <c r="R4">
-        <v>3.692233294340918</v>
+        <v>104.884797453002</v>
       </c>
       <c r="S4">
-        <v>0.0002982818396184559</v>
+        <v>0.000743711997705464</v>
       </c>
       <c r="T4">
-        <v>0.0002982818396184559</v>
+        <v>0.0009894538574411939</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.66465115190606</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H5">
-        <v>1.66465115190606</v>
+        <v>6.622357</v>
       </c>
       <c r="I5">
-        <v>0.003946343519561886</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J5">
-        <v>0.003946343519561886</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.8306444403642</v>
+        <v>2.300308</v>
       </c>
       <c r="N5">
-        <v>20.8306444403642</v>
+        <v>6.900924</v>
       </c>
       <c r="O5">
-        <v>0.7098535089503751</v>
+        <v>0.06642196561729809</v>
       </c>
       <c r="P5">
-        <v>0.7098535089503751</v>
+        <v>0.0875355222960035</v>
       </c>
       <c r="Q5">
-        <v>34.67575626259783</v>
+        <v>5.077820261985333</v>
       </c>
       <c r="R5">
-        <v>34.67575626259783</v>
+        <v>45.700382357868</v>
       </c>
       <c r="S5">
-        <v>0.002801325794884578</v>
+        <v>0.0003240500385625786</v>
       </c>
       <c r="T5">
-        <v>0.002801325794884578</v>
+        <v>0.0004311246311057803</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>405.57525389282</v>
+        <v>2.207452333333333</v>
       </c>
       <c r="H6">
-        <v>405.57525389282</v>
+        <v>6.622357</v>
       </c>
       <c r="I6">
-        <v>0.9614862988332098</v>
+        <v>0.004878657768570872</v>
       </c>
       <c r="J6">
-        <v>0.9614862988332098</v>
+        <v>0.004925139186899712</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.47499220632965</v>
+        <v>25.059511</v>
       </c>
       <c r="N6">
-        <v>1.47499220632965</v>
+        <v>50.119022</v>
       </c>
       <c r="O6">
-        <v>0.0502638502776562</v>
+        <v>0.7235996127598145</v>
       </c>
       <c r="P6">
-        <v>0.0502638502776562</v>
+        <v>0.6357401947528897</v>
       </c>
       <c r="Q6">
-        <v>598.2203385720785</v>
+        <v>55.31767602914233</v>
       </c>
       <c r="R6">
-        <v>598.2203385720785</v>
+        <v>331.906056174854</v>
       </c>
       <c r="S6">
-        <v>0.04832800336857026</v>
+        <v>0.003530194872125544</v>
       </c>
       <c r="T6">
-        <v>0.04832800336857026</v>
+        <v>0.003131108945864712</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>405.57525389282</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H7">
-        <v>405.57525389282</v>
+        <v>1303.417145</v>
       </c>
       <c r="I7">
-        <v>0.9614862988332098</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J7">
-        <v>0.9614862988332098</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.82133155178745</v>
+        <v>1.674454</v>
       </c>
       <c r="N7">
-        <v>4.82133155178745</v>
+        <v>5.023362000000001</v>
       </c>
       <c r="O7">
-        <v>0.1642982832167069</v>
+        <v>0.04835027570905603</v>
       </c>
       <c r="P7">
-        <v>0.1642982832167069</v>
+        <v>0.06371938255687164</v>
       </c>
       <c r="Q7">
-        <v>1955.412768217659</v>
+        <v>727.5040173712766</v>
       </c>
       <c r="R7">
-        <v>1955.412768217659</v>
+        <v>6547.53615634149</v>
       </c>
       <c r="S7">
-        <v>0.157970548234682</v>
+        <v>0.04642694950203301</v>
       </c>
       <c r="T7">
-        <v>0.157970548234682</v>
+        <v>0.06176762566119966</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>405.57525389282</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H8">
-        <v>405.57525389282</v>
+        <v>1303.417145</v>
       </c>
       <c r="I8">
-        <v>0.9614862988332098</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J8">
-        <v>0.9614862988332098</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.21802225055576</v>
+        <v>0.3181346666666667</v>
       </c>
       <c r="N8">
-        <v>2.21802225055576</v>
+        <v>0.954404</v>
       </c>
       <c r="O8">
-        <v>0.07558435755526181</v>
+        <v>0.009186217624337229</v>
       </c>
       <c r="P8">
-        <v>0.07558435755526181</v>
+        <v>0.01210624151510652</v>
       </c>
       <c r="Q8">
-        <v>899.5749374090764</v>
+        <v>138.2207263173978</v>
       </c>
       <c r="R8">
-        <v>899.5749374090764</v>
+        <v>1243.98653685658</v>
       </c>
       <c r="S8">
-        <v>0.07267332419549463</v>
+        <v>0.008820798961440229</v>
       </c>
       <c r="T8">
-        <v>0.07267332419549463</v>
+        <v>0.01173542121821035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>405.57525389282</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H9">
-        <v>405.57525389282</v>
+        <v>1303.417145</v>
       </c>
       <c r="I9">
-        <v>0.9614862988332098</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J9">
-        <v>0.9614862988332098</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.8306444403642</v>
+        <v>5.279328666666667</v>
       </c>
       <c r="N9">
-        <v>20.8306444403642</v>
+        <v>15.837986</v>
       </c>
       <c r="O9">
-        <v>0.7098535089503751</v>
+        <v>0.1524419282894941</v>
       </c>
       <c r="P9">
-        <v>0.7098535089503751</v>
+        <v>0.2008986588791286</v>
       </c>
       <c r="Q9">
-        <v>8448.393907651769</v>
+        <v>2293.722499407775</v>
       </c>
       <c r="R9">
-        <v>8448.393907651769</v>
+        <v>20643.50249466997</v>
       </c>
       <c r="S9">
-        <v>0.682514423034463</v>
+        <v>0.1463779389651604</v>
       </c>
       <c r="T9">
-        <v>0.682514423034463</v>
+        <v>0.1947450314103027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.13916218976507</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H10">
-        <v>1.13916218976507</v>
+        <v>1303.417145</v>
       </c>
       <c r="I10">
-        <v>0.002700581031744604</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J10">
-        <v>0.002700581031744604</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.47499220632965</v>
+        <v>2.300308</v>
       </c>
       <c r="N10">
-        <v>1.47499220632965</v>
+        <v>6.900924</v>
       </c>
       <c r="O10">
-        <v>0.0502638502776562</v>
+        <v>0.06642196561729809</v>
       </c>
       <c r="P10">
-        <v>0.0502638502776562</v>
+        <v>0.0875355222960035</v>
       </c>
       <c r="Q10">
-        <v>1.680255351648896</v>
+        <v>999.4202953268865</v>
       </c>
       <c r="R10">
-        <v>1.680255351648896</v>
+        <v>8994.78265794198</v>
       </c>
       <c r="S10">
-        <v>0.0001357416006422891</v>
+        <v>0.06377976543704547</v>
       </c>
       <c r="T10">
-        <v>0.0001357416006422891</v>
+        <v>0.08485426500188291</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.13916218976507</v>
+        <v>434.4723816666666</v>
       </c>
       <c r="H11">
-        <v>1.13916218976507</v>
+        <v>1303.417145</v>
       </c>
       <c r="I11">
-        <v>0.002700581031744604</v>
+        <v>0.9602209878058093</v>
       </c>
       <c r="J11">
-        <v>0.002700581031744604</v>
+        <v>0.9693694945344148</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.82133155178745</v>
+        <v>25.059511</v>
       </c>
       <c r="N11">
-        <v>4.82133155178745</v>
+        <v>50.119022</v>
       </c>
       <c r="O11">
-        <v>0.1642982832167069</v>
+        <v>0.7235996127598145</v>
       </c>
       <c r="P11">
-        <v>0.1642982832167069</v>
+        <v>0.6357401947528897</v>
       </c>
       <c r="Q11">
-        <v>5.492278608117616</v>
+        <v>10887.66542757203</v>
       </c>
       <c r="R11">
-        <v>5.492278608117616</v>
+        <v>65325.99256543219</v>
       </c>
       <c r="S11">
-        <v>0.0004437008272032416</v>
+        <v>0.6948155349401303</v>
       </c>
       <c r="T11">
-        <v>0.0004437008272032416</v>
+        <v>0.6162671512428191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.13916218976507</v>
+        <v>1.919792</v>
       </c>
       <c r="H12">
-        <v>1.13916218976507</v>
+        <v>5.759376</v>
       </c>
       <c r="I12">
-        <v>0.002700581031744604</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J12">
-        <v>0.002700581031744604</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.21802225055576</v>
+        <v>1.674454</v>
       </c>
       <c r="N12">
-        <v>2.21802225055576</v>
+        <v>5.023362000000001</v>
       </c>
       <c r="O12">
-        <v>0.07558435755526181</v>
+        <v>0.04835027570905603</v>
       </c>
       <c r="P12">
-        <v>0.07558435755526181</v>
+        <v>0.06371938255687164</v>
       </c>
       <c r="Q12">
-        <v>2.526687083890748</v>
+        <v>3.214603393568</v>
       </c>
       <c r="R12">
-        <v>2.526687083890748</v>
+        <v>28.931430542112</v>
       </c>
       <c r="S12">
-        <v>0.000204121682310342</v>
+        <v>0.0002051455742629662</v>
       </c>
       <c r="T12">
-        <v>0.000204121682310342</v>
+        <v>0.0002729310276259237</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.13916218976507</v>
+        <v>1.919792</v>
       </c>
       <c r="H13">
-        <v>1.13916218976507</v>
+        <v>5.759376</v>
       </c>
       <c r="I13">
-        <v>0.002700581031744604</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J13">
-        <v>0.002700581031744604</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>20.8306444403642</v>
+        <v>0.3181346666666667</v>
       </c>
       <c r="N13">
-        <v>20.8306444403642</v>
+        <v>0.954404</v>
       </c>
       <c r="O13">
-        <v>0.7098535089503751</v>
+        <v>0.009186217624337229</v>
       </c>
       <c r="P13">
-        <v>0.7098535089503751</v>
+        <v>0.01210624151510652</v>
       </c>
       <c r="Q13">
-        <v>23.72948253490286</v>
+        <v>0.6107523879893334</v>
       </c>
       <c r="R13">
-        <v>23.72948253490286</v>
+        <v>5.496771491904001</v>
       </c>
       <c r="S13">
-        <v>0.001917016921588732</v>
+        <v>3.897623875382105E-05</v>
       </c>
       <c r="T13">
-        <v>0.001917016921588732</v>
+        <v>5.185500557003298E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.814736007601479</v>
+        <v>1.919792</v>
       </c>
       <c r="H14">
-        <v>0.814736007601479</v>
+        <v>5.759376</v>
       </c>
       <c r="I14">
-        <v>0.00193147264522679</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J14">
-        <v>0.00193147264522679</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.47499220632965</v>
+        <v>5.279328666666667</v>
       </c>
       <c r="N14">
-        <v>1.47499220632965</v>
+        <v>15.837986</v>
       </c>
       <c r="O14">
-        <v>0.0502638502776562</v>
+        <v>0.1524419282894941</v>
       </c>
       <c r="P14">
-        <v>0.0502638502776562</v>
+        <v>0.2008986588791286</v>
       </c>
       <c r="Q14">
-        <v>1.201729261428316</v>
+        <v>10.13521293963734</v>
       </c>
       <c r="R14">
-        <v>1.201729261428316</v>
+        <v>91.21691645673602</v>
       </c>
       <c r="S14">
-        <v>9.708325185506792E-05</v>
+        <v>0.0006467964548720199</v>
       </c>
       <c r="T14">
-        <v>9.708325185506792E-05</v>
+        <v>0.0008605148891330134</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.814736007601479</v>
+        <v>1.919792</v>
       </c>
       <c r="H15">
-        <v>0.814736007601479</v>
+        <v>5.759376</v>
       </c>
       <c r="I15">
-        <v>0.00193147264522679</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J15">
-        <v>0.00193147264522679</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.82133155178745</v>
+        <v>2.300308</v>
       </c>
       <c r="N15">
-        <v>4.82133155178745</v>
+        <v>6.900924</v>
       </c>
       <c r="O15">
-        <v>0.1642982832167069</v>
+        <v>0.06642196561729809</v>
       </c>
       <c r="P15">
-        <v>0.1642982832167069</v>
+        <v>0.0875355222960035</v>
       </c>
       <c r="Q15">
-        <v>3.928112419826351</v>
+        <v>4.416112895936</v>
       </c>
       <c r="R15">
-        <v>3.928112419826351</v>
+        <v>39.745016063424</v>
       </c>
       <c r="S15">
-        <v>0.0003173376396907932</v>
+        <v>0.0002818220181872391</v>
       </c>
       <c r="T15">
-        <v>0.0003173376396907932</v>
+        <v>0.0003749433703739447</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.814736007601479</v>
+        <v>1.919792</v>
       </c>
       <c r="H16">
-        <v>0.814736007601479</v>
+        <v>5.759376</v>
       </c>
       <c r="I16">
-        <v>0.00193147264522679</v>
+        <v>0.004242903918426723</v>
       </c>
       <c r="J16">
-        <v>0.00193147264522679</v>
+        <v>0.004283328191109256</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.21802225055576</v>
+        <v>25.059511</v>
       </c>
       <c r="N16">
-        <v>2.21802225055576</v>
+        <v>50.119022</v>
       </c>
       <c r="O16">
-        <v>0.07558435755526181</v>
+        <v>0.7235996127598145</v>
       </c>
       <c r="P16">
-        <v>0.07558435755526181</v>
+        <v>0.6357401947528897</v>
       </c>
       <c r="Q16">
-        <v>1.807102593189047</v>
+        <v>48.109048741712</v>
       </c>
       <c r="R16">
-        <v>1.807102593189047</v>
+        <v>288.654292450272</v>
       </c>
       <c r="S16">
-        <v>0.000145989119025029</v>
+        <v>0.003070163632350676</v>
       </c>
       <c r="T16">
-        <v>0.000145989119025029</v>
+        <v>0.002723083898406341</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.814736007601479</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H17">
-        <v>0.814736007601479</v>
+        <v>3.182723</v>
       </c>
       <c r="I17">
-        <v>0.00193147264522679</v>
+        <v>0.002344696350432208</v>
       </c>
       <c r="J17">
-        <v>0.00193147264522679</v>
+        <v>0.002367035448005447</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.8306444403642</v>
+        <v>1.674454</v>
       </c>
       <c r="N17">
-        <v>20.8306444403642</v>
+        <v>5.023362000000001</v>
       </c>
       <c r="O17">
-        <v>0.7098535089503751</v>
+        <v>0.04835027570905603</v>
       </c>
       <c r="P17">
-        <v>0.7098535089503751</v>
+        <v>0.06371938255687164</v>
       </c>
       <c r="Q17">
-        <v>16.97147608710827</v>
+        <v>1.776441086080667</v>
       </c>
       <c r="R17">
-        <v>16.97147608710827</v>
+        <v>15.987969774726</v>
       </c>
       <c r="S17">
-        <v>0.0013710626346559</v>
+        <v>0.0001133667149974147</v>
       </c>
       <c r="T17">
-        <v>0.0013710626346559</v>
+        <v>0.0001508260372371352</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>12.6273442719144</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H18">
-        <v>12.6273442719144</v>
+        <v>3.182723</v>
       </c>
       <c r="I18">
-        <v>0.02993530397025696</v>
+        <v>0.002344696350432208</v>
       </c>
       <c r="J18">
-        <v>0.02993530397025696</v>
+        <v>0.002367035448005447</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.47499220632965</v>
+        <v>0.3181346666666667</v>
       </c>
       <c r="N18">
-        <v>1.47499220632965</v>
+        <v>0.954404</v>
       </c>
       <c r="O18">
-        <v>0.0502638502776562</v>
+        <v>0.009186217624337229</v>
       </c>
       <c r="P18">
-        <v>0.0502638502776562</v>
+        <v>0.01210624151510652</v>
       </c>
       <c r="Q18">
-        <v>18.62523438771509</v>
+        <v>0.3375115068991111</v>
       </c>
       <c r="R18">
-        <v>18.62523438771509</v>
+        <v>3.037603562092</v>
       </c>
       <c r="S18">
-        <v>0.001504663636777123</v>
+        <v>2.153889093805953E-05</v>
       </c>
       <c r="T18">
-        <v>0.001504663636777123</v>
+        <v>2.86559028083723E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>12.6273442719144</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H19">
-        <v>12.6273442719144</v>
+        <v>3.182723</v>
       </c>
       <c r="I19">
-        <v>0.02993530397025696</v>
+        <v>0.002344696350432208</v>
       </c>
       <c r="J19">
-        <v>0.02993530397025696</v>
+        <v>0.002367035448005447</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.82133155178745</v>
+        <v>5.279328666666667</v>
       </c>
       <c r="N19">
-        <v>4.82133155178745</v>
+        <v>15.837986</v>
       </c>
       <c r="O19">
-        <v>0.1642982832167069</v>
+        <v>0.1524419282894941</v>
       </c>
       <c r="P19">
-        <v>0.1642982832167069</v>
+        <v>0.2008986588791286</v>
       </c>
       <c r="Q19">
-        <v>60.88061335346342</v>
+        <v>5.600880257319778</v>
       </c>
       <c r="R19">
-        <v>60.88061335346342</v>
+        <v>50.407922315878</v>
       </c>
       <c r="S19">
-        <v>0.004918319049883489</v>
+        <v>0.0003574300329132251</v>
       </c>
       <c r="T19">
-        <v>0.004918319049883489</v>
+        <v>0.0004755342470236517</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.6273442719144</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H20">
-        <v>12.6273442719144</v>
+        <v>3.182723</v>
       </c>
       <c r="I20">
-        <v>0.02993530397025696</v>
+        <v>0.002344696350432208</v>
       </c>
       <c r="J20">
-        <v>0.02993530397025696</v>
+        <v>0.002367035448005447</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.21802225055576</v>
+        <v>2.300308</v>
       </c>
       <c r="N20">
-        <v>2.21802225055576</v>
+        <v>6.900924</v>
       </c>
       <c r="O20">
-        <v>0.07558435755526181</v>
+        <v>0.06642196561729809</v>
       </c>
       <c r="P20">
-        <v>0.07558435755526181</v>
+        <v>0.0875355222960035</v>
       </c>
       <c r="Q20">
-        <v>28.00773056053396</v>
+        <v>2.440414392894666</v>
       </c>
       <c r="R20">
-        <v>28.00773056053396</v>
+        <v>21.963729536052</v>
       </c>
       <c r="S20">
-        <v>0.002262640718813351</v>
+        <v>0.0001557393403714124</v>
       </c>
       <c r="T20">
-        <v>0.002262640718813351</v>
+        <v>0.0002071996842343115</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.6273442719144</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H21">
-        <v>12.6273442719144</v>
+        <v>3.182723</v>
       </c>
       <c r="I21">
-        <v>0.02993530397025696</v>
+        <v>0.002344696350432208</v>
       </c>
       <c r="J21">
-        <v>0.02993530397025696</v>
+        <v>0.002367035448005447</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.8306444403642</v>
+        <v>25.059511</v>
       </c>
       <c r="N21">
-        <v>20.8306444403642</v>
+        <v>50.119022</v>
       </c>
       <c r="O21">
-        <v>0.7098535089503751</v>
+        <v>0.7235996127598145</v>
       </c>
       <c r="P21">
-        <v>0.7098535089503751</v>
+        <v>0.6357401947528897</v>
       </c>
       <c r="Q21">
-        <v>263.0357187543184</v>
+        <v>26.58582734281767</v>
       </c>
       <c r="R21">
-        <v>263.0357187543184</v>
+        <v>159.514964056906</v>
       </c>
       <c r="S21">
-        <v>0.021249680564783</v>
+        <v>0.001696621371212096</v>
       </c>
       <c r="T21">
-        <v>0.021249680564783</v>
+        <v>0.001504819576701977</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>12.810707</v>
+      </c>
+      <c r="H22">
+        <v>25.621414</v>
+      </c>
+      <c r="I22">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J22">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.674454</v>
+      </c>
+      <c r="N22">
+        <v>5.023362000000001</v>
+      </c>
+      <c r="O22">
+        <v>0.04835027570905603</v>
+      </c>
+      <c r="P22">
+        <v>0.06371938255687164</v>
+      </c>
+      <c r="Q22">
+        <v>21.450939578978</v>
+      </c>
+      <c r="R22">
+        <v>128.705637473868</v>
+      </c>
+      <c r="S22">
+        <v>0.00136892946956212</v>
+      </c>
+      <c r="T22">
+        <v>0.001214173002813018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>12.810707</v>
+      </c>
+      <c r="H23">
+        <v>25.621414</v>
+      </c>
+      <c r="I23">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J23">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.3181346666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.954404</v>
+      </c>
+      <c r="O23">
+        <v>0.009186217624337229</v>
+      </c>
+      <c r="P23">
+        <v>0.01210624151510652</v>
+      </c>
+      <c r="Q23">
+        <v>4.075530001209334</v>
+      </c>
+      <c r="R23">
+        <v>24.453180007256</v>
+      </c>
+      <c r="S23">
+        <v>0.0002600871212283657</v>
+      </c>
+      <c r="T23">
+        <v>0.0002306844640256377</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>12.810707</v>
+      </c>
+      <c r="H24">
+        <v>25.621414</v>
+      </c>
+      <c r="I24">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J24">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>5.279328666666667</v>
+      </c>
+      <c r="N24">
+        <v>15.837986</v>
+      </c>
+      <c r="O24">
+        <v>0.1524419282894941</v>
+      </c>
+      <c r="P24">
+        <v>0.2008986588791286</v>
+      </c>
+      <c r="Q24">
+        <v>67.63193270536735</v>
+      </c>
+      <c r="R24">
+        <v>405.791596232204</v>
+      </c>
+      <c r="S24">
+        <v>0.004316050838843045</v>
+      </c>
+      <c r="T24">
+        <v>0.003828124475228051</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>12.810707</v>
+      </c>
+      <c r="H25">
+        <v>25.621414</v>
+      </c>
+      <c r="I25">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J25">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.300308</v>
+      </c>
+      <c r="N25">
+        <v>6.900924</v>
+      </c>
+      <c r="O25">
+        <v>0.06642196561729809</v>
+      </c>
+      <c r="P25">
+        <v>0.0875355222960035</v>
+      </c>
+      <c r="Q25">
+        <v>29.468571797756</v>
+      </c>
+      <c r="R25">
+        <v>176.811430786536</v>
+      </c>
+      <c r="S25">
+        <v>0.001880588783131397</v>
+      </c>
+      <c r="T25">
+        <v>0.001667989608406565</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>12.810707</v>
+      </c>
+      <c r="H26">
+        <v>25.621414</v>
+      </c>
+      <c r="I26">
+        <v>0.02831275415676106</v>
+      </c>
+      <c r="J26">
+        <v>0.01905500263957091</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>25.059511</v>
+      </c>
+      <c r="N26">
+        <v>50.119022</v>
+      </c>
+      <c r="O26">
+        <v>0.7235996127598145</v>
+      </c>
+      <c r="P26">
+        <v>0.6357401947528897</v>
+      </c>
+      <c r="Q26">
+        <v>321.030052984277</v>
+      </c>
+      <c r="R26">
+        <v>1284.120211937108</v>
+      </c>
+      <c r="S26">
+        <v>0.02048709794399614</v>
+      </c>
+      <c r="T26">
+        <v>0.01211403108909764</v>
       </c>
     </row>
   </sheetData>
